--- a/模拟/data/美国指标数据.xlsx
+++ b/模拟/data/美国指标数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F10A93-B1C1-4AD8-907F-A1E52882072A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78AF5F-8F3D-4650-9DC0-FCF7D4E23F97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{3D430E52-8992-4CFF-B26A-43238A4AD04B}"/>
+    <workbookView xWindow="2232" yWindow="3648" windowWidth="17280" windowHeight="8964" xr2:uid="{3D430E52-8992-4CFF-B26A-43238A4AD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>贫困线以下人口比例</t>
   </si>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>物种威胁状态的变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人均GDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,15 +227,35 @@
     </r>
   </si>
   <si>
-    <t>59484美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垃圾回收率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球人均GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均GDP占世界比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECCEE61-CC65-4371-8C3B-300C83EC05C2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,200 +681,217 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.125</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D2">
-        <v>2012</v>
+        <v>0.125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D3">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>0.93637999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.93637999999999999</v>
+      </c>
+      <c r="D5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.30840000000000001</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>2012</v>
+        <v>2015</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>0.26300000000000001</v>
+        <v>0.30840000000000001</v>
       </c>
       <c r="D10">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>4.0000000000000003E-5</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D11">
-        <v>2006</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D12">
+        <v>2006</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="F13" t="s">
         <v>32</v>
-      </c>
-      <c r="D14">
-        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.36</v>
       </c>
       <c r="D15">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.35</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>2019</v>
       </c>
     </row>

--- a/模拟/data/美国指标数据.xlsx
+++ b/模拟/data/美国指标数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78AF5F-8F3D-4650-9DC0-FCF7D4E23F97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824C8D1-7AB4-40C1-AE80-808CB32B0012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="3648" windowWidth="17280" windowHeight="8964" xr2:uid="{3D430E52-8992-4CFF-B26A-43238A4AD04B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{3D430E52-8992-4CFF-B26A-43238A4AD04B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,11 +251,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球人均GDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人均GDP占世界比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球人均GDP1.146万美元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +349,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECCEE61-CC65-4371-8C3B-300C83EC05C2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -717,8 +720,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>4.7E-2</v>
+      <c r="C3" s="4">
+        <v>4.7</v>
       </c>
       <c r="D3">
         <v>2012</v>
@@ -855,16 +858,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
-        <v>0.36</v>
+        <v>5.5018000000000002</v>
       </c>
       <c r="D15">
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/模拟/data/美国指标数据.xlsx
+++ b/模拟/data/美国指标数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\MCMICM\模拟\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824C8D1-7AB4-40C1-AE80-808CB32B0012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4163AA06-925C-420A-AC2E-3CFB4A0DB536}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{3D430E52-8992-4CFF-B26A-43238A4AD04B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>贫困线以下人口比例</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>全球人均GDP1.146万美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 放弃此行数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECCEE61-CC65-4371-8C3B-300C83EC05C2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -883,6 +887,9 @@
       <c r="D16">
         <v>2019</v>
       </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
